--- a/PL/teams/[2] Segunda entrega/[5] Quinta fase/Listado de entregables software.xlsx
+++ b/PL/teams/[2] Segunda entrega/[5] Quinta fase/Listado de entregables software.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27518"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27605"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="151" documentId="11_728DDF3B077254BFA4F9F69AE845F97BD581EBCB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FF8A52F-AAFF-46F1-8C81-8E4CAAB4F63D}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="11_728DDF3B077254BFA4F9F69AE845F97BD581EBCB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77735DB5-6435-493B-90F0-6D846FC251E9}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="B2:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -802,26 +802,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4c77c7d1-2bb2-481b-aefe-101f32e9588a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="101eaf33-1701-464d-baef-164c6127d51f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010083760B57A9050A41B8ECD167852D12BD" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8132143c76e717270f9d10193ef25fbb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="101eaf33-1701-464d-baef-164c6127d51f" xmlns:ns3="4c77c7d1-2bb2-481b-aefe-101f32e9588a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b65e1f9a1f5ead05db23d305e45ecaf" ns2:_="" ns3:_="">
     <xsd:import namespace="101eaf33-1701-464d-baef-164c6127d51f"/>
@@ -1016,8 +996,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4c77c7d1-2bb2-481b-aefe-101f32e9588a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="101eaf33-1701-464d-baef-164c6127d51f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13B7F469-9757-4597-9C34-CFA19CB84FA2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAF51FD7-6A5A-47EA-A591-055F01003E3C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1025,5 +1025,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAF51FD7-6A5A-47EA-A591-055F01003E3C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13B7F469-9757-4597-9C34-CFA19CB84FA2}"/>
 </file>
--- a/PL/teams/[2] Segunda entrega/[5] Quinta fase/Listado de entregables software.xlsx
+++ b/PL/teams/[2] Segunda entrega/[5] Quinta fase/Listado de entregables software.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27605"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27609"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="153" documentId="11_728DDF3B077254BFA4F9F69AE845F97BD581EBCB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77735DB5-6435-493B-90F0-6D846FC251E9}"/>
+  <xr:revisionPtr revIDLastSave="213" documentId="11_728DDF3B077254BFA4F9F69AE845F97BD581EBCB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEB768E8-9D93-4A2B-BA54-05F86E26D600}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>Nombre</t>
   </si>
@@ -148,6 +148,54 @@
   </si>
   <si>
     <t>Despliegue d ela aplicación en tiendas de aplicaciones (App Store y Google Play).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisión de requisitos y especificaciones de comunicación </t>
+  </si>
+  <si>
+    <t>Diseño de la arquitectura del software HUB</t>
+  </si>
+  <si>
+    <t>Aprobación del diseño</t>
+  </si>
+  <si>
+    <t>Desarrollo del Software HUB</t>
+  </si>
+  <si>
+    <t>Configuración del entorno de desarrollo para el software HUB</t>
+  </si>
+  <si>
+    <t>Desarrollo de la lógica de comunicación con dispositivos de usuarios</t>
+  </si>
+  <si>
+    <t>Implementación de la comunicación bidireccional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementación de la autenticación de usuarios </t>
+  </si>
+  <si>
+    <t>Desarrollo de la funcionalidad para enviar datos de consumo de los medidores de cargadores eléctricos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimización del rendimiento del software HUB </t>
+  </si>
+  <si>
+    <t>Despliegue del software HUB en los dispositivos o sistemas necesarios</t>
+  </si>
+  <si>
+    <t>Configuración de los permisos y la seguridad adecuados para proteger la comunicación</t>
+  </si>
+  <si>
+    <t>Fase de pruebas con Testers</t>
+  </si>
+  <si>
+    <t>Seguimiento de las pruebas realizadas por los testers para identificar problemas</t>
+  </si>
+  <si>
+    <t>Ejecución de los cambios pertinentes</t>
+  </si>
+  <si>
+    <t>Firma del acta de aceptación del software</t>
   </si>
 </sst>
 </file>
@@ -169,7 +217,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +236,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -201,11 +255,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G24"/>
+  <dimension ref="B2:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -796,14 +851,204 @@
         <v>20</v>
       </c>
     </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <f>SUM(F28:F44)</f>
+        <v>934</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32">
+        <f>20*8</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="D33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33">
+        <f>15*8</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="D38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="D44" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="D45" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010083760B57A9050A41B8ECD167852D12BD" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8132143c76e717270f9d10193ef25fbb">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="101eaf33-1701-464d-baef-164c6127d51f" xmlns:ns3="4c77c7d1-2bb2-481b-aefe-101f32e9588a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b65e1f9a1f5ead05db23d305e45ecaf" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4c77c7d1-2bb2-481b-aefe-101f32e9588a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="101eaf33-1701-464d-baef-164c6127d51f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010083760B57A9050A41B8ECD167852D12BD" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="eac238aecdab541038108c888c49e31e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="101eaf33-1701-464d-baef-164c6127d51f" xmlns:ns3="4c77c7d1-2bb2-481b-aefe-101f32e9588a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="efe92b1ac631852ba9ae12b231089a75" ns2:_="" ns3:_="">
     <xsd:import namespace="101eaf33-1701-464d-baef-164c6127d51f"/>
     <xsd:import namespace="4c77c7d1-2bb2-481b-aefe-101f32e9588a"/>
     <xsd:element name="properties">
@@ -822,6 +1067,8 @@
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -895,6 +1142,32 @@
           </xsd:extension>
         </xsd:complexContent>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -996,28 +1269,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4c77c7d1-2bb2-481b-aefe-101f32e9588a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="101eaf33-1701-464d-baef-164c6127d51f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAF51FD7-6A5A-47EA-A591-055F01003E3C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13B7F469-9757-4597-9C34-CFA19CB84FA2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1025,5 +1278,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13B7F469-9757-4597-9C34-CFA19CB84FA2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCE03C24-DAD0-471F-827A-0CC63109938F}"/>
 </file>